--- a/src/main/resources/menu.xlsx
+++ b/src/main/resources/menu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ponce\Documents\Programacion\UTN\TECNICATURA EN PROGRAMACION\ECOMMERCE PIZZERIA LAVERA PIZZA\Recursos\Menu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ponce\Documents\Programacion\UTN\TECNICATURA EN PROGRAMACION\ECOMMERCE PIZZERIA LAVERA PIZZA\Backend\e-commerce\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C287194-5AB0-459A-806F-327C0D678779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69377C6A-6092-4542-9B91-8FB2D57E1089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{24E9A1C6-F8C1-447B-B028-E4562A053A92}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="73">
   <si>
     <t>lomos</t>
   </si>
@@ -203,24 +203,9 @@
     <t>jamon cocido, champignon</t>
   </si>
   <si>
-    <t>salsa, lomo, muzarella, jamon, lechuga, tomate, huevo, morron, aceitunas</t>
-  </si>
-  <si>
-    <t>salsa, muzarella, champignon, panceta, tomate fresco y aceitunas</t>
-  </si>
-  <si>
-    <t>salsa, muzarella, queso azul, anchoa, morron y aceitunas</t>
-  </si>
-  <si>
     <t>salsa, muzarrella, champignon y aceitunas</t>
   </si>
   <si>
-    <t>salsa, muzarella, provolone, queso azul, parmesano y aceitunas</t>
-  </si>
-  <si>
-    <t>salsa, muzarella, jamon crudo, aceitunas</t>
-  </si>
-  <si>
     <t>jamon, morron</t>
   </si>
   <si>
@@ -233,9 +218,6 @@
     <t>Product Price</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Ingredients</t>
   </si>
   <si>
@@ -243,6 +225,36 @@
   </si>
   <si>
     <t>Additives Price</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>salsa, lomo, muzzarella, jamon, lechuga, tomate, huevo, morron, aceitunas</t>
+  </si>
+  <si>
+    <t>salsa, muzzarella, champignon, panceta, tomate fresco y aceitunas</t>
+  </si>
+  <si>
+    <t>salsa, muzzarella, queso azul, anchoa, morron y aceitunas</t>
+  </si>
+  <si>
+    <t>salsa, muzzarella, provolone, queso azul, parmesano y aceitunas</t>
+  </si>
+  <si>
+    <t>salsa, muzzarella, jamon crudo, aceitunas</t>
   </si>
 </sst>
 </file>
@@ -278,8 +290,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,16 +313,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABA3F003-44D7-4D63-A5C0-ACC6EFF6A89B}" name="Tabla1" displayName="Tabla1" ref="A1:G43" totalsRowShown="0">
-  <autoFilter ref="A1:G43" xr:uid="{ABA3F003-44D7-4D63-A5C0-ACC6EFF6A89B}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ABA3F003-44D7-4D63-A5C0-ACC6EFF6A89B}" name="Tabla1" displayName="Tabla1" ref="A1:I43" totalsRowShown="0">
+  <autoFilter ref="A1:I43" xr:uid="{ABA3F003-44D7-4D63-A5C0-ACC6EFF6A89B}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{2C0DF8A4-06AD-4768-B048-86E741A92931}" name="Category  Name"/>
     <tableColumn id="2" xr3:uid="{3BD8E395-3B1F-4F6B-9CC2-0C6D1C63B590}" name="Product Name"/>
     <tableColumn id="3" xr3:uid="{B894A726-B151-47B4-BC57-DC947B9113DB}" name="Product Price"/>
-    <tableColumn id="4" xr3:uid="{A0A0B6C1-8A9C-45BC-8C95-E3375DB8F2C1}" name="Quantity"/>
+    <tableColumn id="8" xr3:uid="{52C32147-C952-4745-905B-13CD7AA46CAA}" name="Description"/>
     <tableColumn id="5" xr3:uid="{58359572-4EB8-4EBB-BBFB-BEADFA01C3C5}" name="Ingredients"/>
     <tableColumn id="6" xr3:uid="{BEB4A002-C98C-4C6E-ABA6-2E83F516A4F3}" name="Additives"/>
     <tableColumn id="7" xr3:uid="{47DC1684-0136-4601-83D5-486574CD6D86}" name="Additives Price"/>
+    <tableColumn id="4" xr3:uid="{A0A0B6C1-8A9C-45BC-8C95-E3375DB8F2C1}" name="Size"/>
+    <tableColumn id="9" xr3:uid="{5FFE2432-04DB-4929-A655-08CC5A4E907C}" name="Image"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -630,43 +647,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3C5377-E932-4452-8667-3A29B1590007}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -676,14 +704,20 @@
       <c r="C2">
         <v>8500</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>66</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -693,14 +727,20 @@
       <c r="C3">
         <v>9500</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>66</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -710,14 +750,20 @@
       <c r="C4">
         <v>10000</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>66</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -727,14 +773,20 @@
       <c r="C5">
         <v>6500</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>66</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -744,8 +796,8 @@
       <c r="C6">
         <v>7000</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="s">
+        <v>66</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -753,8 +805,14 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -764,8 +822,8 @@
       <c r="C7">
         <v>7500</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="s">
+        <v>66</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -773,8 +831,15 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -784,8 +849,8 @@
       <c r="C8">
         <v>8000</v>
       </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" t="s">
+        <v>66</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -793,8 +858,14 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -804,11 +875,17 @@
       <c r="C9">
         <v>8000</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -818,11 +895,17 @@
       <c r="C10">
         <v>4000</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -832,11 +915,17 @@
       <c r="C11">
         <v>800</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -846,11 +935,17 @@
       <c r="C12">
         <v>8000</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -860,11 +955,17 @@
       <c r="C13">
         <v>4000</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -874,11 +975,17 @@
       <c r="C14">
         <v>800</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -888,14 +995,20 @@
       <c r="C15">
         <v>3500</v>
       </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="D15" t="s">
+        <v>66</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -905,14 +1018,20 @@
       <c r="C16">
         <v>5000</v>
       </c>
-      <c r="D16">
-        <v>1</v>
+      <c r="D16" t="s">
+        <v>66</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -922,14 +1041,20 @@
       <c r="C17">
         <v>6000</v>
       </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="D17" t="s">
+        <v>66</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -939,8 +1064,8 @@
       <c r="C18">
         <v>8000</v>
       </c>
-      <c r="D18">
-        <v>1</v>
+      <c r="D18" t="s">
+        <v>66</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
@@ -948,8 +1073,14 @@
       <c r="F18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -959,8 +1090,8 @@
       <c r="C19">
         <v>6500</v>
       </c>
-      <c r="D19">
-        <v>1</v>
+      <c r="D19" t="s">
+        <v>66</v>
       </c>
       <c r="E19" t="s">
         <v>32</v>
@@ -968,8 +1099,14 @@
       <c r="F19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -979,14 +1116,20 @@
       <c r="C20">
         <v>8000</v>
       </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="D20" t="s">
+        <v>66</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -996,8 +1139,8 @@
       <c r="C21">
         <v>4500</v>
       </c>
-      <c r="D21">
-        <v>0.5</v>
+      <c r="D21" t="s">
+        <v>66</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -1008,8 +1151,14 @@
       <c r="G21">
         <v>1500</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1019,8 +1168,8 @@
       <c r="C22">
         <v>8500</v>
       </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="D22" t="s">
+        <v>66</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -1031,8 +1180,14 @@
       <c r="G22">
         <v>1500</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1042,8 +1197,8 @@
       <c r="C23">
         <v>6000</v>
       </c>
-      <c r="D23">
-        <v>0.5</v>
+      <c r="D23" t="s">
+        <v>66</v>
       </c>
       <c r="E23" t="s">
         <v>40</v>
@@ -1054,8 +1209,14 @@
       <c r="G23">
         <v>1500</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1065,8 +1226,8 @@
       <c r="C24">
         <v>11000</v>
       </c>
-      <c r="D24">
-        <v>1</v>
+      <c r="D24" t="s">
+        <v>66</v>
       </c>
       <c r="E24" t="s">
         <v>40</v>
@@ -1077,8 +1238,14 @@
       <c r="G24">
         <v>1500</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1088,8 +1255,8 @@
       <c r="C25">
         <v>6000</v>
       </c>
-      <c r="D25">
-        <v>0.5</v>
+      <c r="D25" t="s">
+        <v>66</v>
       </c>
       <c r="E25" t="s">
         <v>41</v>
@@ -1100,8 +1267,14 @@
       <c r="G25">
         <v>1500</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1111,8 +1284,8 @@
       <c r="C26">
         <v>11000</v>
       </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="D26" t="s">
+        <v>66</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
@@ -1123,8 +1296,14 @@
       <c r="G26">
         <v>1500</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1134,20 +1313,26 @@
       <c r="C27">
         <v>11000</v>
       </c>
-      <c r="D27">
-        <v>1</v>
+      <c r="D27" t="s">
+        <v>66</v>
       </c>
       <c r="E27" t="s">
         <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G27">
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1157,20 +1342,26 @@
       <c r="C28">
         <v>6500</v>
       </c>
-      <c r="D28">
-        <v>0.5</v>
+      <c r="D28" t="s">
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G28">
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28">
+        <v>0.5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1180,20 +1371,26 @@
       <c r="C29">
         <v>11000</v>
       </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="D29" t="s">
+        <v>66</v>
       </c>
       <c r="E29" t="s">
         <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G29">
         <v>1000</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -1203,8 +1400,8 @@
       <c r="C30">
         <v>6500</v>
       </c>
-      <c r="D30">
-        <v>0.5</v>
+      <c r="D30" t="s">
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>53</v>
@@ -1215,8 +1412,14 @@
       <c r="G30">
         <v>500</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30">
+        <v>0.5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1226,8 +1429,8 @@
       <c r="C31">
         <v>12000</v>
       </c>
-      <c r="D31">
-        <v>1</v>
+      <c r="D31" t="s">
+        <v>66</v>
       </c>
       <c r="E31" t="s">
         <v>53</v>
@@ -1238,8 +1441,14 @@
       <c r="G31">
         <v>500</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -1249,20 +1458,26 @@
       <c r="C32">
         <v>15000</v>
       </c>
-      <c r="D32">
-        <v>0.5</v>
+      <c r="D32" t="s">
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G32">
         <v>1000</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+      <c r="I32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1272,20 +1487,26 @@
       <c r="C33">
         <v>21000</v>
       </c>
-      <c r="D33">
-        <v>1</v>
+      <c r="D33" t="s">
+        <v>66</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G33">
         <v>1000</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1295,20 +1516,26 @@
       <c r="C34">
         <v>6500</v>
       </c>
-      <c r="D34">
-        <v>0.5</v>
+      <c r="D34" t="s">
+        <v>66</v>
       </c>
       <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" t="s">
         <v>56</v>
-      </c>
-      <c r="F34" t="s">
-        <v>61</v>
       </c>
       <c r="G34">
         <v>1000</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34">
+        <v>0.5</v>
+      </c>
+      <c r="I34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1318,20 +1545,26 @@
       <c r="C35">
         <v>12000</v>
       </c>
-      <c r="D35">
-        <v>1</v>
+      <c r="D35" t="s">
+        <v>66</v>
       </c>
       <c r="E35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" t="s">
         <v>56</v>
-      </c>
-      <c r="F35" t="s">
-        <v>61</v>
       </c>
       <c r="G35">
         <v>1000</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -1341,20 +1574,26 @@
       <c r="C36">
         <v>6500</v>
       </c>
-      <c r="D36">
-        <v>0.5</v>
+      <c r="D36" t="s">
+        <v>66</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G36">
         <v>1000</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36">
+        <v>0.5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1364,20 +1603,26 @@
       <c r="C37">
         <v>12000</v>
       </c>
-      <c r="D37">
-        <v>1</v>
+      <c r="D37" t="s">
+        <v>66</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G37">
         <v>1000</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1387,20 +1632,26 @@
       <c r="C38">
         <v>6000</v>
       </c>
-      <c r="D38">
-        <v>0.5</v>
+      <c r="D38" t="s">
+        <v>66</v>
       </c>
       <c r="E38" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G38">
         <v>1000</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38">
+        <v>0.5</v>
+      </c>
+      <c r="I38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1410,20 +1661,26 @@
       <c r="C39">
         <v>11000</v>
       </c>
-      <c r="D39">
-        <v>1</v>
+      <c r="D39" t="s">
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G39">
         <v>1000</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1433,20 +1690,26 @@
       <c r="C40">
         <v>6000</v>
       </c>
-      <c r="D40">
-        <v>0.5</v>
+      <c r="D40" t="s">
+        <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G40">
         <v>1000</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40">
+        <v>0.5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -1456,20 +1719,26 @@
       <c r="C41">
         <v>11000</v>
       </c>
-      <c r="D41">
-        <v>1</v>
+      <c r="D41" t="s">
+        <v>66</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G41">
         <v>1000</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1479,20 +1748,26 @@
       <c r="C42">
         <v>6000</v>
       </c>
-      <c r="D42">
-        <v>0.5</v>
+      <c r="D42" t="s">
+        <v>66</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G42">
         <v>1000</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42">
+        <v>0.5</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1502,17 +1777,23 @@
       <c r="C43">
         <v>11000</v>
       </c>
-      <c r="D43">
-        <v>1</v>
+      <c r="D43" t="s">
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G43">
         <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
